--- a/conv-china.xlsx
+++ b/conv-china.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewzzh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78412CF-A3EB-4776-8CAF-6D17988E7FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016276B-F26F-4374-B325-2AA9C7EE702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4728" yWindow="1044" windowWidth="16296" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9132" yWindow="1044" windowWidth="11892" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="yishi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>QG</t>
   </si>
@@ -43,10 +44,22 @@
     <t>QG-HB</t>
   </si>
   <si>
-    <t>QG-Total</t>
+    <t>HB new</t>
   </si>
   <si>
-    <t>Wu Bei</t>
+    <t>HB YISHI</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>HB Accumulation New</t>
+  </si>
+  <si>
+    <t>QG Accumulation New</t>
+  </si>
+  <si>
+    <t>QG - HB Accumulation New</t>
   </si>
 </sst>
 </file>
@@ -82,9 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +134,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Accumulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -155,6 +197,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB Accumulation New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -169,38 +222,344 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>43863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4</c:v>
+                  <c:v>43864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$8</c:f>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48206</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33EB-4193-9B05-C018CBC2A7A2}"/>
+              <c16:uniqueId val="{00000000-FC37-4940-B7C7-245144F417AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QG Accumulation New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC37-4940-B7C7-245144F417AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QG - HB Accumulation New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10910</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC37-4940-B7C7-245144F417AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -213,18 +572,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2083592415"/>
-        <c:axId val="2080937775"/>
+        <c:axId val="1253476431"/>
+        <c:axId val="1256549535"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2083592415"/>
+      <c:dateAx>
+        <c:axId val="1253476431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -260,15 +619,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080937775"/>
+        <c:crossAx val="1256549535"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2080937775"/>
+        <c:axId val="1256549535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -319,7 +677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083592415"/>
+        <c:crossAx val="1253476431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -331,8 +689,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -465,10 +861,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>new!$A$3:$A$13</c:f>
+              <c:f>new!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.1</c:v>
                 </c:pt>
@@ -501,6 +897,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,10 +928,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>new!$B$3:$B$13</c:f>
+              <c:f>new!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1921</c:v>
                 </c:pt>
@@ -565,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,10 +1234,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>new!$A$3:$A$13</c:f>
+              <c:f>new!$A$3:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.1</c:v>
                 </c:pt>
@@ -868,6 +1270,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,10 +1301,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>new!$D$3:$D$13</c:f>
+              <c:f>new!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>669</c:v>
                 </c:pt>
@@ -932,6 +1337,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +1347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F98A-4ED1-9E72-C5C999921A7F}"/>
+              <c16:uniqueId val="{00000001-DFC1-472B-9E6C-AF3EE21C0236}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2779,23 +3187,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBF54C3-66DC-42C4-B374-AB3D7AABCBCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EC0861-E112-4F82-9987-9361B9AE7295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,98 +3564,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2.1</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9074</v>
       </c>
       <c r="C4" s="1">
         <v>14380</v>
       </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
+        <v>5306</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11177</v>
+      </c>
       <c r="C5" s="1">
         <v>17205</v>
       </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>6028</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13522</v>
+      </c>
       <c r="C6" s="1">
         <v>20438</v>
       </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>6916</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2.4</v>
-      </c>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16678</v>
+      </c>
       <c r="C7" s="1">
         <v>24324</v>
       </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>7646</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2.5</v>
-      </c>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19665</v>
+      </c>
       <c r="C8" s="1">
         <v>28018</v>
       </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>8353</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2.6</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B9" s="1">
         <v>22112</v>
       </c>
       <c r="C9" s="1">
         <v>31161</v>
       </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>9049</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2.7</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B10" s="1">
         <v>24953</v>
       </c>
       <c r="C10" s="1">
-        <v>31774</v>
+        <v>34546</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>9593</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2.8</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B11" s="1">
         <v>27100</v>
       </c>
       <c r="C11" s="1">
-        <v>33738</v>
-      </c>
+        <v>37198</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>10098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29631</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40171</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>10540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B13" s="1">
+        <v>31728</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42638</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>10910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B14" s="1">
+        <v>33366</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14-B14</f>
+        <v>11287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B15" s="1">
+        <v>48206</v>
+      </c>
+      <c r="C15" s="1">
+        <v>59804</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15-B15</f>
+        <v>11598</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3258,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10217265-50B8-48FD-9AF7-F8589C8A7006}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3303,7 +3833,7 @@
         <v>2829</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D13" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
         <v>726</v>
       </c>
     </row>
@@ -3440,10 +3970,174 @@
       <c r="D13">
         <f t="shared" si="0"/>
         <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.12</v>
+      </c>
+      <c r="B14">
+        <v>14840</v>
+      </c>
+      <c r="C14">
+        <v>15152</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178EF442-28FD-48CB-A728-AA86014DAA98}">
+  <dimension ref="B2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2.1</v>
+      </c>
+      <c r="C3">
+        <v>1921</v>
+      </c>
+      <c r="D3">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4">
+        <v>2103</v>
+      </c>
+      <c r="D4">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5">
+        <v>2345</v>
+      </c>
+      <c r="D5">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <v>3156</v>
+      </c>
+      <c r="D6">
+        <v>1957</v>
+      </c>
+      <c r="I6">
+        <f>SUM(C3:C13)</f>
+        <v>26300</v>
+      </c>
+      <c r="J6">
+        <f>SUM(D3:D13)</f>
+        <v>23538</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2.6</v>
+      </c>
+      <c r="C8">
+        <v>2447</v>
+      </c>
+      <c r="D8">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2.7</v>
+      </c>
+      <c r="C9">
+        <v>2841</v>
+      </c>
+      <c r="D9">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2.8</v>
+      </c>
+      <c r="C10">
+        <v>2147</v>
+      </c>
+      <c r="D10">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2.9</v>
+      </c>
+      <c r="C11">
+        <v>2618</v>
+      </c>
+      <c r="D11">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2.1</v>
+      </c>
+      <c r="C12">
+        <v>2097</v>
+      </c>
+      <c r="D12">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2.11</v>
+      </c>
+      <c r="C13">
+        <v>1638</v>
+      </c>
+      <c r="D13">
+        <v>1685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/conv-china.xlsx
+++ b/conv-china.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewzzh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016276B-F26F-4374-B325-2AA9C7EE702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3963B882-024F-41E6-9EE1-A82EFD762536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="1044" windowWidth="11892" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9132" yWindow="1044" windowWidth="11892" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accumulation" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
     <sheet name="yishi" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -199,7 +199,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Accumulation!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -222,10 +222,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:f>Accumulation!$A$4:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -261,16 +261,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:f>Accumulation!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>9074</c:v>
                 </c:pt>
@@ -306,6 +309,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>48206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,7 +328,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Accumulation!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,10 +351,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:f>Accumulation!$A$4:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -384,16 +390,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:f>Accumulation!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>14380</c:v>
                 </c:pt>
@@ -429,6 +438,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>59804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,7 +457,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>Accumulation!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -468,10 +480,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:f>Accumulation!$A$4:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -507,16 +519,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$15</c:f>
+              <c:f>Accumulation!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5306</c:v>
                 </c:pt>
@@ -552,6 +567,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,13 +817,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Hu bei new</a:t>
+              <a:t>New</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> trend</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -847,6 +860,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -859,47 +883,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>new!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>new!$A$3:$A$14</c:f>
+              <c:f>new!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.1</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4</c:v>
+                  <c:v>3156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>2987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6</c:v>
+                  <c:v>2447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7</c:v>
+                  <c:v>2841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>2147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9</c:v>
+                  <c:v>2618</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1</c:v>
+                  <c:v>2097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.11</c:v>
+                  <c:v>1638</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.12</c:v>
+                  <c:v>14840</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,13 +982,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEA1-4690-8971-65FAA40B0EDE}"/>
+              <c16:uniqueId val="{00000000-EE80-4C4F-9490-B0F00E0921CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -926,47 +1012,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>new!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>new!$B$3:$B$14</c:f>
+              <c:f>new!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1921</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2103</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2345</c:v>
+                  <c:v>3235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3156</c:v>
+                  <c:v>3887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2987</c:v>
+                  <c:v>3694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2447</c:v>
+                  <c:v>3143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2841</c:v>
+                  <c:v>3399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2147</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2618</c:v>
+                  <c:v>3062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2097</c:v>
+                  <c:v>2478</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1638</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14840</c:v>
+                  <c:v>15152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +1111,136 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8955-4B9A-A815-1CED3CDCA2C5}"/>
+              <c16:uniqueId val="{00000001-EE80-4C4F-9490-B0F00E0921CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QG-HB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>new!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE80-4C4F-9490-B0F00E0921CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -987,18 +1253,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2083270159"/>
-        <c:axId val="2080932783"/>
+        <c:axId val="1050978143"/>
+        <c:axId val="1147322671"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2083270159"/>
+      <c:dateAx>
+        <c:axId val="1050978143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1034,15 +1300,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080932783"/>
+        <c:crossAx val="1147322671"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2080932783"/>
+        <c:axId val="1147322671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083270159"/>
+        <c:crossAx val="1050978143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,8 +1370,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1157,31 +1460,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Other new trend</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1220,6 +1498,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QG-HB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1232,47 +1521,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>new!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>new!$A$3:$A$14</c:f>
+              <c:f>new!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.1</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.11</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.12</c:v>
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,74 +1620,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D56D-4C1A-A301-8FF7867F8005}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>new!$D$3:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>731</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>312</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DFC1-472B-9E6C-AF3EE21C0236}"/>
+              <c16:uniqueId val="{00000000-A858-4F46-9265-1AE276349011}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,18 +1633,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2083033391"/>
-        <c:axId val="2080933615"/>
+        <c:axId val="995823439"/>
+        <c:axId val="1147319759"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2083033391"/>
+      <c:dateAx>
+        <c:axId val="995823439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1407,15 +1680,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080933615"/>
+        <c:crossAx val="1147319759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2080933615"/>
+        <c:axId val="1147319759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083033391"/>
+        <c:crossAx val="995823439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,6 +1752,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3228,23 +3507,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266F68A0-13AF-40C0-B593-A57F796F10C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9A4F13-154F-4C22-A432-D24AAB56E9A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,23 +3543,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0970EA30-4F73-4C19-931D-3621297678D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A353954-FF0E-421B-B5BD-3B52BBDB85B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3846,7 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,7 +3881,7 @@
         <v>14380</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D13" si="0">C4-B4</f>
         <v>5306</v>
       </c>
     </row>
@@ -3776,8 +4055,16 @@
       <c r="A16" s="2">
         <v>43874</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1">
+        <v>51986</v>
+      </c>
+      <c r="C16" s="1">
+        <v>63851</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16-B16</f>
+        <v>11865</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3788,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10217265-50B8-48FD-9AF7-F8589C8A7006}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3808,8 +4095,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2.1</v>
+      <c r="A3" s="2">
+        <v>43862</v>
       </c>
       <c r="B3">
         <v>1921</v>
@@ -3823,8 +4110,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2.2000000000000002</v>
+      <c r="A4" s="2">
+        <v>43863</v>
       </c>
       <c r="B4">
         <v>2103</v>
@@ -3833,13 +4120,13 @@
         <v>2829</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D15" si="0">C4-B4</f>
         <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2.2999999999999998</v>
+      <c r="A5" s="2">
+        <v>43864</v>
       </c>
       <c r="B5">
         <v>2345</v>
@@ -3853,8 +4140,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2.4</v>
+      <c r="A6" s="2">
+        <v>43865</v>
       </c>
       <c r="B6">
         <v>3156</v>
@@ -3868,8 +4155,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2.5</v>
+      <c r="A7" s="2">
+        <v>43866</v>
       </c>
       <c r="B7">
         <v>2987</v>
@@ -3883,8 +4170,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2.6</v>
+      <c r="A8" s="2">
+        <v>43867</v>
       </c>
       <c r="B8">
         <v>2447</v>
@@ -3898,8 +4185,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2.7</v>
+      <c r="A9" s="2">
+        <v>43868</v>
       </c>
       <c r="B9">
         <v>2841</v>
@@ -3913,8 +4200,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2.8</v>
+      <c r="A10" s="2">
+        <v>43869</v>
       </c>
       <c r="B10">
         <v>2147</v>
@@ -3928,8 +4215,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2.9</v>
+      <c r="A11" s="2">
+        <v>43870</v>
       </c>
       <c r="B11">
         <v>2618</v>
@@ -3943,8 +4230,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2.1</v>
+      <c r="A12" s="2">
+        <v>43871</v>
       </c>
       <c r="B12">
         <v>2097</v>
@@ -3958,8 +4245,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2.11</v>
+      <c r="A13" s="2">
+        <v>43872</v>
       </c>
       <c r="B13">
         <v>1638</v>
@@ -3973,8 +4260,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.12</v>
+      <c r="A14" s="2">
+        <v>43873</v>
       </c>
       <c r="B14">
         <v>14840</v>
@@ -3985,6 +4272,21 @@
       <c r="D14">
         <f t="shared" si="0"/>
         <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B15">
+        <v>4832</v>
+      </c>
+      <c r="C15">
+        <v>5090</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
